--- a/config_1.11/game_activity_config.xlsx
+++ b/config_1.11/game_activity_config.xlsx
@@ -1849,10 +1849,10 @@
   <dimension ref="A1:O110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J77" sqref="J77"/>
+      <selection pane="bottomRight" activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5384,7 +5384,7 @@
         <v>236</v>
       </c>
       <c r="I77" s="53">
-        <v>1641254400</v>
+        <v>1641859200</v>
       </c>
       <c r="J77" s="53">
         <v>1643039999</v>
@@ -5431,7 +5431,7 @@
         <v>210</v>
       </c>
       <c r="I78" s="53">
-        <v>1641254400</v>
+        <v>1641859200</v>
       </c>
       <c r="J78" s="53">
         <v>1643039999</v>
@@ -5478,7 +5478,7 @@
         <v>247</v>
       </c>
       <c r="I79" s="53">
-        <v>1641254400</v>
+        <v>1641859200</v>
       </c>
       <c r="J79" s="53">
         <v>1643039999</v>
@@ -5572,7 +5572,7 @@
         <v>203</v>
       </c>
       <c r="I81" s="53">
-        <v>1641254400</v>
+        <v>1641859200</v>
       </c>
       <c r="J81" s="53">
         <v>1643039999</v>
@@ -5751,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="53">
-        <v>1641254400</v>
+        <v>1641859200</v>
       </c>
       <c r="J85" s="53">
         <v>1643039999</v>
@@ -6644,7 +6644,7 @@
         <v>202</v>
       </c>
       <c r="I105" s="53">
-        <v>1641254400</v>
+        <v>1641859200</v>
       </c>
       <c r="J105" s="53">
         <v>1643039999</v>
@@ -6688,7 +6688,7 @@
         <v>202</v>
       </c>
       <c r="I106" s="53">
-        <v>1641254400</v>
+        <v>1641859200</v>
       </c>
       <c r="J106" s="53">
         <v>1643039999</v>
@@ -6895,17 +6895,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6916,17 +6916,17 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6934,13 +6934,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -6952,13 +6952,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
